--- a/Result_files/V3_Bids_2021-04-19_2021-04-25.xlsx
+++ b/Result_files/V3_Bids_2021-04-19_2021-04-25.xlsx
@@ -542,10 +542,10 @@
         <v>33</v>
       </c>
       <c r="D2" t="n">
-        <v>47.40000000000001</v>
+        <v>47.8</v>
       </c>
       <c r="E2" t="n">
-        <v>1.1</v>
+        <v>0.39</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>816.4705191002824</v>
+        <v>3443.065872044778</v>
       </c>
       <c r="K2" t="n">
         <v>40.349998</v>
@@ -601,7 +601,7 @@
         <v>47.8</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3899999999998726</v>
+        <v>0.39</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -616,7 +616,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>3293.054972898547</v>
+        <v>3293.054972898548</v>
       </c>
       <c r="K3" t="n">
         <v>39.330002</v>
@@ -672,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>3251.861539157981</v>
+        <v>3251.861539157982</v>
       </c>
       <c r="K4" t="n">
         <v>38.939999</v>
@@ -728,7 +728,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>3245.83777865257</v>
+        <v>3245.837778652564</v>
       </c>
       <c r="K5" t="n">
         <v>38.860001</v>
@@ -760,19 +760,19 @@
         <v>44305.16666666666</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>42.4</v>
+        <v>42.44</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>1.14</v>
+        <v>0.74</v>
       </c>
       <c r="F6" t="n">
-        <v>47.8</v>
+        <v>49.8</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -784,7 +784,7 @@
         <v>26.003</v>
       </c>
       <c r="J6" t="n">
-        <v>2206.030217286278</v>
+        <v>2280.892345951282</v>
       </c>
       <c r="K6" t="n">
         <v>34.580002</v>
@@ -816,31 +816,31 @@
         <v>44305.20833333334</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>42.4</v>
+        <v>42.44</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>1.17</v>
+        <v>0.79</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>49.8</v>
       </c>
       <c r="G7" t="n">
-        <v>22.986</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>47.40000000000001</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>26.003</v>
       </c>
       <c r="J7" t="n">
-        <v>-874.0055891599997</v>
+        <v>2600.648519876522</v>
       </c>
       <c r="K7" t="n">
         <v>44.639999</v>
@@ -872,31 +872,31 @@
         <v>44305.25</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>42.4</v>
+        <v>42.44</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>5.31</v>
+        <v>3.16</v>
       </c>
       <c r="F8" t="n">
-        <v>29.8</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>21.8189999999999</v>
+        <v>22.118</v>
       </c>
       <c r="H8" t="n">
-        <v>18</v>
+        <v>49.8</v>
       </c>
       <c r="I8" t="n">
         <v>23.154</v>
       </c>
       <c r="J8" t="n">
-        <v>-1186.471102620001</v>
+        <v>-1145.471890749982</v>
       </c>
       <c r="K8" t="n">
         <v>58.580002</v>
@@ -928,31 +928,31 @@
         <v>44305.29166666666</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>42.4</v>
+        <v>42.44</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>5.31</v>
+        <v>3.16</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G9" t="n">
-        <v>23.984</v>
+        <v>21.8189999999999</v>
       </c>
       <c r="H9" t="n">
-        <v>47.8</v>
+        <v>38.8</v>
       </c>
       <c r="I9" t="n">
         <v>23.154</v>
       </c>
       <c r="J9" t="n">
-        <v>-5410.395269798732</v>
+        <v>-1236.898028919999</v>
       </c>
       <c r="K9" t="n">
         <v>63.82</v>
@@ -993,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>5.31</v>
+        <v>3.36</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1008,7 +1008,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>-5226.351185669679</v>
+        <v>-872.2546508230151</v>
       </c>
       <c r="K10" t="n">
         <v>66.150002</v>
@@ -1064,7 +1064,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>-4812.138173826654</v>
+        <v>113.8499255694897</v>
       </c>
       <c r="K11" t="n">
         <v>45.860001</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>-5489.428323819999</v>
+        <v>1004.756484748531</v>
       </c>
       <c r="K12" t="n">
         <v>40</v>
@@ -1176,7 +1176,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>-5728.123608938777</v>
+        <v>462.3647548550443</v>
       </c>
       <c r="K13" t="n">
         <v>40.98</v>
@@ -1211,13 +1211,13 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>1.24</v>
+        <v>1.2</v>
       </c>
       <c r="F14" t="n">
         <v>49.8</v>
@@ -1232,7 +1232,7 @@
         <v>24.571</v>
       </c>
       <c r="J14" t="n">
-        <v>-6336.872545307619</v>
+        <v>-1365.749522910455</v>
       </c>
       <c r="K14" t="n">
         <v>41</v>
@@ -1267,13 +1267,13 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>1.24</v>
+        <v>1.2</v>
       </c>
       <c r="F15" t="n">
         <v>49.8</v>
@@ -1288,7 +1288,7 @@
         <v>24.571</v>
       </c>
       <c r="J15" t="n">
-        <v>-5875.689819862249</v>
+        <v>1214.025621693811</v>
       </c>
       <c r="K15" t="n">
         <v>42.599998</v>
@@ -1323,13 +1323,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>1.24</v>
+        <v>1.2</v>
       </c>
       <c r="F16" t="n">
         <v>49.8</v>
@@ -1344,7 +1344,7 @@
         <v>24.571</v>
       </c>
       <c r="J16" t="n">
-        <v>-4992.706617744769</v>
+        <v>282.8155092130041</v>
       </c>
       <c r="K16" t="n">
         <v>44.119999</v>
@@ -1379,13 +1379,13 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="F17" t="n">
         <v>49.8</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>23.154</v>
+        <v>24.571</v>
       </c>
       <c r="J17" t="n">
-        <v>-4338.485292393142</v>
+        <v>1007.985355583558</v>
       </c>
       <c r="K17" t="n">
         <v>48.82</v>
@@ -1435,28 +1435,28 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>46.64</v>
+        <v>42.13</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>3.19</v>
+        <v>2.68</v>
       </c>
       <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>21.819</v>
+      </c>
+      <c r="H18" t="n">
         <v>49.8</v>
-      </c>
-      <c r="G18" t="n">
-        <v>21.58699999999999</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>23.154</v>
       </c>
       <c r="J18" t="n">
-        <v>-2818.725746004361</v>
+        <v>-1206.018051680471</v>
       </c>
       <c r="K18" t="n">
         <v>52.9998</v>
@@ -1491,28 +1491,28 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>46.64</v>
+        <v>42.13</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>4.03</v>
+        <v>3.33</v>
       </c>
       <c r="F19" t="n">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>21.55899999999991</v>
+        <v>21.819</v>
       </c>
       <c r="H19" t="n">
-        <v>6.800000000000001</v>
+        <v>49.8</v>
       </c>
       <c r="I19" t="n">
         <v>23.154</v>
       </c>
       <c r="J19" t="n">
-        <v>-1136.921336633798</v>
+        <v>-683.435730494634</v>
       </c>
       <c r="K19" t="n">
         <v>61.49999</v>
@@ -1547,28 +1547,28 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>46.64</v>
+        <v>42.13</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>4.63</v>
+        <v>3.33</v>
       </c>
       <c r="F20" t="n">
-        <v>8.6</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>21.397</v>
+        <v>21.819</v>
       </c>
       <c r="H20" t="n">
-        <v>41.2</v>
+        <v>49.8</v>
       </c>
       <c r="I20" t="n">
         <v>23.154</v>
       </c>
       <c r="J20" t="n">
-        <v>-1207.309098959999</v>
+        <v>-646.3174124589303</v>
       </c>
       <c r="K20" t="n">
         <v>70.910004</v>
@@ -1603,19 +1603,19 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>46.64</v>
+        <v>42.13</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>4.63</v>
+        <v>3.21</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>21.495</v>
+        <v>21.819</v>
       </c>
       <c r="H21" t="n">
         <v>49.8</v>
@@ -1624,7 +1624,7 @@
         <v>23.154</v>
       </c>
       <c r="J21" t="n">
-        <v>-731.9927835442442</v>
+        <v>-627.3760804323591</v>
       </c>
       <c r="K21" t="n">
         <v>84</v>
@@ -1659,19 +1659,19 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>29.9</v>
+        <v>29</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>4.03</v>
+        <v>2.47</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>21.8189999999999</v>
+        <v>21.982</v>
       </c>
       <c r="H22" t="n">
         <v>49.8</v>
@@ -1680,7 +1680,7 @@
         <v>23.154</v>
       </c>
       <c r="J22" t="n">
-        <v>-654.3516632112814</v>
+        <v>-654.3516632112816</v>
       </c>
       <c r="K22" t="n">
         <v>73.58000199999999</v>
@@ -1715,7 +1715,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>29.9</v>
+        <v>29</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -1727,7 +1727,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>21.98200000000001</v>
+        <v>21.982</v>
       </c>
       <c r="H23" t="n">
         <v>49.8</v>
@@ -1736,7 +1736,7 @@
         <v>23.154</v>
       </c>
       <c r="J23" t="n">
-        <v>-705.9213494848896</v>
+        <v>-705.9213494848893</v>
       </c>
       <c r="K23" t="n">
         <v>66.75</v>
@@ -1771,19 +1771,19 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>29.9</v>
+        <v>29</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>1.13</v>
+        <v>0.9500000000000001</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>21.98200000000001</v>
+        <v>21.982</v>
       </c>
       <c r="H24" t="n">
         <v>49.8</v>
@@ -1792,7 +1792,7 @@
         <v>23.154</v>
       </c>
       <c r="J24" t="n">
-        <v>-734.8020798265467</v>
+        <v>-734.4367383354388</v>
       </c>
       <c r="K24" t="n">
         <v>62.5</v>
@@ -1827,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>29.9</v>
+        <v>29</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -1839,7 +1839,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>22.37399999999997</v>
+        <v>22.707</v>
       </c>
       <c r="H25" t="n">
         <v>49.8</v>
@@ -1848,7 +1848,7 @@
         <v>24.041</v>
       </c>
       <c r="J25" t="n">
-        <v>-732.0143475161685</v>
+        <v>-732.0143475161692</v>
       </c>
       <c r="K25" t="n">
         <v>59.99998</v>
@@ -1889,7 +1889,7 @@
         <v>47.8</v>
       </c>
       <c r="E26" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.34</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -1904,7 +1904,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>1155.297834796163</v>
+        <v>3391.644095889873</v>
       </c>
       <c r="K26" t="n">
         <v>51.2</v>
@@ -2001,7 +2001,7 @@
         <v>47.8</v>
       </c>
       <c r="E28" t="n">
-        <v>0.3399999999996907</v>
+        <v>0.34</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>3172.950603760743</v>
+        <v>3172.950603760744</v>
       </c>
       <c r="K28" t="n">
         <v>39.93</v>
@@ -2072,7 +2072,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>3155.024664695933</v>
+        <v>3155.024664695932</v>
       </c>
       <c r="K29" t="n">
         <v>39.919998</v>
@@ -2107,7 +2107,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>42.39999999999964</v>
+        <v>48.18</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2116,19 +2116,19 @@
         <v>0.39</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>49.8</v>
       </c>
       <c r="G30" t="n">
-        <v>22.986</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>49.8</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>23.64499999999992</v>
+        <v>26.003</v>
       </c>
       <c r="J30" t="n">
-        <v>-805.3893046400738</v>
+        <v>2299.132687455538</v>
       </c>
       <c r="K30" t="n">
         <v>44.52</v>
@@ -2163,7 +2163,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>42.39999999999964</v>
+        <v>48.18</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2172,19 +2172,19 @@
         <v>0.39</v>
       </c>
       <c r="F31" t="n">
-        <v>4.7</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>22.986</v>
       </c>
       <c r="H31" t="n">
-        <v>45.1</v>
+        <v>49.8</v>
       </c>
       <c r="I31" t="n">
         <v>23.64499999999992</v>
       </c>
       <c r="J31" t="n">
-        <v>-1208.78019508</v>
+        <v>-837.9072578633601</v>
       </c>
       <c r="K31" t="n">
         <v>45</v>
@@ -2219,7 +2219,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>42.39999999999964</v>
+        <v>48.18</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -2228,19 +2228,19 @@
         <v>5.31</v>
       </c>
       <c r="F32" t="n">
-        <v>40.2</v>
+        <v>13.6</v>
       </c>
       <c r="G32" t="n">
-        <v>22.118</v>
+        <v>22.11799999999999</v>
       </c>
       <c r="H32" t="n">
-        <v>9.600000000000001</v>
+        <v>36.2</v>
       </c>
       <c r="I32" t="n">
         <v>22.88599999999991</v>
       </c>
       <c r="J32" t="n">
-        <v>-1154.774726374875</v>
+        <v>-1191.3808631</v>
       </c>
       <c r="K32" t="n">
         <v>54.29999</v>
@@ -2275,7 +2275,7 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>42.39999999999964</v>
+        <v>48.18</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -2296,7 +2296,7 @@
         <v>25.681</v>
       </c>
       <c r="J33" t="n">
-        <v>-3162.290253605951</v>
+        <v>-1849.889538717301</v>
       </c>
       <c r="K33" t="n">
         <v>62.919998</v>
@@ -2352,7 +2352,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>-4606.568557298122</v>
+        <v>-3070.47042776664</v>
       </c>
       <c r="K34" t="n">
         <v>63.41</v>
@@ -2393,7 +2393,7 @@
         <v>47.8</v>
       </c>
       <c r="E35" t="n">
-        <v>1.339999999999691</v>
+        <v>1.34</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -2408,7 +2408,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>-5145.00628611269</v>
+        <v>-3673.771191289727</v>
       </c>
       <c r="K35" t="n">
         <v>46.80002</v>
@@ -2464,7 +2464,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>-5480.189775379181</v>
+        <v>-3830.037760952461</v>
       </c>
       <c r="K36" t="n">
         <v>40.759998</v>
@@ -2520,7 +2520,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>-5541.789904064819</v>
+        <v>-3645.038353320823</v>
       </c>
       <c r="K37" t="n">
         <v>33.75</v>
@@ -2576,7 +2576,7 @@
         <v>24.571</v>
       </c>
       <c r="J38" t="n">
-        <v>-5919.66219940766</v>
+        <v>-3789.038413392154</v>
       </c>
       <c r="K38" t="n">
         <v>36.9998</v>
@@ -2629,10 +2629,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>22.72499999999997</v>
+        <v>24.571</v>
       </c>
       <c r="J39" t="n">
-        <v>-5127.775907809041</v>
+        <v>-2459.09849026859</v>
       </c>
       <c r="K39" t="n">
         <v>34.73</v>
@@ -2685,10 +2685,10 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>22.75099999999992</v>
+        <v>24.571</v>
       </c>
       <c r="J40" t="n">
-        <v>-4045.317818695169</v>
+        <v>-1540.399511439059</v>
       </c>
       <c r="K40" t="n">
         <v>35.57</v>
@@ -2744,7 +2744,7 @@
         <v>24.571</v>
       </c>
       <c r="J41" t="n">
-        <v>-3892.86273659697</v>
+        <v>-534.5948287406642</v>
       </c>
       <c r="K41" t="n">
         <v>39.41</v>
@@ -2788,19 +2788,19 @@
         <v>1.26</v>
       </c>
       <c r="F42" t="n">
-        <v>49.8</v>
+        <v>13.2</v>
       </c>
       <c r="G42" t="n">
         <v>21.58699999999999</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>36.6</v>
       </c>
       <c r="I42" t="n">
         <v>22.76799999999997</v>
       </c>
       <c r="J42" t="n">
-        <v>-2752.950257660363</v>
+        <v>-640.5263043545549</v>
       </c>
       <c r="K42" t="n">
         <v>39.799999</v>
@@ -2844,19 +2844,19 @@
         <v>4.63</v>
       </c>
       <c r="F43" t="n">
-        <v>44.8</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>21.55899999999991</v>
+        <v>22.804</v>
       </c>
       <c r="H43" t="n">
-        <v>5</v>
+        <v>49.8</v>
       </c>
       <c r="I43" t="n">
         <v>22.68199999999996</v>
       </c>
       <c r="J43" t="n">
-        <v>-1122.873160144285</v>
+        <v>-630.1353767589299</v>
       </c>
       <c r="K43" t="n">
         <v>40.540001</v>
@@ -2900,19 +2900,19 @@
         <v>5.37</v>
       </c>
       <c r="F44" t="n">
-        <v>9.700000000000001</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>21.39699999999999</v>
+        <v>22.804</v>
       </c>
       <c r="H44" t="n">
-        <v>40.1</v>
+        <v>49.8</v>
       </c>
       <c r="I44" t="n">
         <v>22.75099999999992</v>
       </c>
       <c r="J44" t="n">
-        <v>-1167.279317705205</v>
+        <v>-594.0220201525283</v>
       </c>
       <c r="K44" t="n">
         <v>40.73</v>
@@ -2959,7 +2959,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>22.80400000000001</v>
+        <v>22.804</v>
       </c>
       <c r="H45" t="n">
         <v>49.8</v>
@@ -2968,7 +2968,7 @@
         <v>22.50399999999996</v>
       </c>
       <c r="J45" t="n">
-        <v>-650.7602578262508</v>
+        <v>-544.6985310705824</v>
       </c>
       <c r="K45" t="n">
         <v>39.939999</v>
@@ -3015,7 +3015,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>22.99000000000002</v>
+        <v>22.99</v>
       </c>
       <c r="H46" t="n">
         <v>49.8</v>
@@ -3024,7 +3024,7 @@
         <v>23.005</v>
       </c>
       <c r="J46" t="n">
-        <v>-610.0256741306525</v>
+        <v>-610.0256741306528</v>
       </c>
       <c r="K46" t="n">
         <v>39.560001</v>
@@ -3071,7 +3071,7 @@
         <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>21.98199999999991</v>
+        <v>22.99000000000002</v>
       </c>
       <c r="H47" t="n">
         <v>49.8</v>
@@ -3080,7 +3080,7 @@
         <v>23.005</v>
       </c>
       <c r="J47" t="n">
-        <v>-630.1953202936285</v>
+        <v>-630.1953202936282</v>
       </c>
       <c r="K47" t="n">
         <v>41.82</v>
@@ -3127,7 +3127,7 @@
         <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>22.99000000000002</v>
+        <v>22.99</v>
       </c>
       <c r="H48" t="n">
         <v>49.8</v>
@@ -3136,7 +3136,7 @@
         <v>23.005</v>
       </c>
       <c r="J48" t="n">
-        <v>-678.3081328284934</v>
+        <v>-678.3081328284933</v>
       </c>
       <c r="K48" t="n">
         <v>36.889999</v>
@@ -3192,7 +3192,7 @@
         <v>24.08199999999999</v>
       </c>
       <c r="J49" t="n">
-        <v>-715.0658826620612</v>
+        <v>-714.7554073559671</v>
       </c>
       <c r="K49" t="n">
         <v>36.900002</v>
@@ -3248,7 +3248,7 @@
         <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>3143.754134951944</v>
+        <v>3143.754134951946</v>
       </c>
       <c r="K50" t="n">
         <v>40.9</v>
@@ -3451,7 +3451,7 @@
         <v>0</v>
       </c>
       <c r="C54" t="n">
-        <v>42.84000000000004</v>
+        <v>42.84</v>
       </c>
       <c r="D54" t="n">
         <v>0</v>
@@ -3507,7 +3507,7 @@
         <v>0</v>
       </c>
       <c r="C55" t="n">
-        <v>42.84000000000004</v>
+        <v>42.84</v>
       </c>
       <c r="D55" t="n">
         <v>0</v>
@@ -3519,16 +3519,16 @@
         <v>0</v>
       </c>
       <c r="G55" t="n">
-        <v>0</v>
+        <v>23.98400000000002</v>
       </c>
       <c r="H55" t="n">
-        <v>49.2</v>
+        <v>49.8</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
       <c r="J55" t="n">
-        <v>-1023.999900120001</v>
+        <v>-687.2661974019145</v>
       </c>
       <c r="K55" t="n">
         <v>58</v>
@@ -3563,28 +3563,28 @@
         <v>0</v>
       </c>
       <c r="C56" t="n">
-        <v>42.84000000000004</v>
+        <v>42.84</v>
       </c>
       <c r="D56" t="n">
         <v>0</v>
       </c>
       <c r="E56" t="n">
-        <v>5.31</v>
+        <v>2.61</v>
       </c>
       <c r="F56" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="G56" t="n">
-        <v>23.984</v>
+        <v>23.54899999999992</v>
       </c>
       <c r="H56" t="n">
-        <v>49.8</v>
+        <v>42.3</v>
       </c>
       <c r="I56" t="n">
         <v>22.88599999999991</v>
       </c>
       <c r="J56" t="n">
-        <v>-1378.371478112005</v>
+        <v>-1183.372864260001</v>
       </c>
       <c r="K56" t="n">
         <v>72.970001</v>
@@ -3619,28 +3619,28 @@
         <v>0</v>
       </c>
       <c r="C57" t="n">
-        <v>42.84000000000004</v>
+        <v>42.84</v>
       </c>
       <c r="D57" t="n">
         <v>0</v>
       </c>
       <c r="E57" t="n">
-        <v>5.31</v>
+        <v>2.61</v>
       </c>
       <c r="F57" t="n">
-        <v>0</v>
+        <v>26.3</v>
       </c>
       <c r="G57" t="n">
-        <v>23.984</v>
+        <v>23.54899999999992</v>
       </c>
       <c r="H57" t="n">
-        <v>49.8</v>
+        <v>23.5</v>
       </c>
       <c r="I57" t="n">
         <v>22.96099999999996</v>
       </c>
       <c r="J57" t="n">
-        <v>-1939.619723436085</v>
+        <v>-1187.74759829419</v>
       </c>
       <c r="K57" t="n">
         <v>75.120003</v>
@@ -3681,13 +3681,13 @@
         <v>0</v>
       </c>
       <c r="E58" t="n">
-        <v>5.310000000000286</v>
+        <v>2.61</v>
       </c>
       <c r="F58" t="n">
         <v>47.8</v>
       </c>
       <c r="G58" t="n">
-        <v>0</v>
+        <v>23.597</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -3696,7 +3696,7 @@
         <v>25.289</v>
       </c>
       <c r="J58" t="n">
-        <v>-2649.39262747717</v>
+        <v>-900.4577409710972</v>
       </c>
       <c r="K58" t="n">
         <v>51.470001</v>
@@ -3752,7 +3752,7 @@
         <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>-3325.434633497974</v>
+        <v>-3200.041753620141</v>
       </c>
       <c r="K59" t="n">
         <v>45.77</v>
@@ -3793,7 +3793,7 @@
         <v>47.8</v>
       </c>
       <c r="E60" t="n">
-        <v>0.6599999999998545</v>
+        <v>0.66</v>
       </c>
       <c r="F60" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>-4778.408784340907</v>
+        <v>-4274.102281072683</v>
       </c>
       <c r="K60" t="n">
         <v>45.400002</v>
@@ -3849,7 +3849,7 @@
         <v>47.8</v>
       </c>
       <c r="E61" t="n">
-        <v>0.6599999999998545</v>
+        <v>0.66</v>
       </c>
       <c r="F61" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="J61" t="n">
-        <v>-5658.613145829861</v>
+        <v>-4423.53828402773</v>
       </c>
       <c r="K61" t="n">
         <v>42.900002</v>
@@ -3905,7 +3905,7 @@
         <v>0</v>
       </c>
       <c r="E62" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="F62" t="n">
         <v>49.8</v>
@@ -3917,10 +3917,10 @@
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
+        <v>22.71700000000001</v>
       </c>
       <c r="J62" t="n">
-        <v>-5304.427646839013</v>
+        <v>-3929.067080704825</v>
       </c>
       <c r="K62" t="n">
         <v>42.709999</v>
@@ -3973,10 +3973,10 @@
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>22.725</v>
+        <v>22.72499999999999</v>
       </c>
       <c r="J63" t="n">
-        <v>-6197.832192912848</v>
+        <v>-2944.585278796603</v>
       </c>
       <c r="K63" t="n">
         <v>41.259998</v>
@@ -4029,10 +4029,10 @@
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>24.571</v>
+        <v>22.751</v>
       </c>
       <c r="J64" t="n">
-        <v>-4010.754073236028</v>
+        <v>-1936.298538826883</v>
       </c>
       <c r="K64" t="n">
         <v>41.709999</v>
@@ -4085,10 +4085,10 @@
         <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>25.28900000000004</v>
+        <v>24.571</v>
       </c>
       <c r="J65" t="n">
-        <v>-3157.198956281894</v>
+        <v>-676.1693337256165</v>
       </c>
       <c r="K65" t="n">
         <v>41.779999</v>
@@ -4129,22 +4129,22 @@
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>2.68</v>
+        <v>1.2</v>
       </c>
       <c r="F66" t="n">
-        <v>49.8</v>
+        <v>4.4</v>
       </c>
       <c r="G66" t="n">
         <v>22.84699999999992</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>45.40000000000001</v>
       </c>
       <c r="I66" t="n">
         <v>22.76799999999997</v>
       </c>
       <c r="J66" t="n">
-        <v>-2871.462002528922</v>
+        <v>-1167.435923322629</v>
       </c>
       <c r="K66" t="n">
         <v>46.450001</v>
@@ -4185,22 +4185,22 @@
         <v>0</v>
       </c>
       <c r="E67" t="n">
-        <v>4.63</v>
+        <v>4.03</v>
       </c>
       <c r="F67" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="G67" t="n">
-        <v>22.84700000000002</v>
+        <v>23.45400000000001</v>
       </c>
       <c r="H67" t="n">
-        <v>11.8</v>
+        <v>49.8</v>
       </c>
       <c r="I67" t="n">
         <v>22.68199999999996</v>
       </c>
       <c r="J67" t="n">
-        <v>-1164.0993644</v>
+        <v>-583.571355101787</v>
       </c>
       <c r="K67" t="n">
         <v>54.9</v>
@@ -4241,7 +4241,7 @@
         <v>0</v>
       </c>
       <c r="E68" t="n">
-        <v>5.31</v>
+        <v>4.63</v>
       </c>
       <c r="F68" t="n">
         <v>0</v>
@@ -4256,7 +4256,7 @@
         <v>22.75099999999992</v>
       </c>
       <c r="J68" t="n">
-        <v>-1735.403628801777</v>
+        <v>-533.3684710916401</v>
       </c>
       <c r="K68" t="n">
         <v>58.29999</v>
@@ -4312,7 +4312,7 @@
         <v>22.50399999999996</v>
       </c>
       <c r="J69" t="n">
-        <v>-599.3241853336601</v>
+        <v>-513.186798197593</v>
       </c>
       <c r="K69" t="n">
         <v>68.220001</v>
@@ -4347,19 +4347,19 @@
         <v>0</v>
       </c>
       <c r="C70" t="n">
-        <v>28.44</v>
+        <v>24.8</v>
       </c>
       <c r="D70" t="n">
         <v>0</v>
       </c>
       <c r="E70" t="n">
-        <v>4.03</v>
+        <v>3.63</v>
       </c>
       <c r="F70" t="n">
         <v>0</v>
       </c>
       <c r="G70" t="n">
-        <v>23.03100000000001</v>
+        <v>23.597</v>
       </c>
       <c r="H70" t="n">
         <v>49.8</v>
@@ -4368,7 +4368,7 @@
         <v>23.005</v>
       </c>
       <c r="J70" t="n">
-        <v>-584.5912758446988</v>
+        <v>-584.5912758446991</v>
       </c>
       <c r="K70" t="n">
         <v>63.599998</v>
@@ -4403,7 +4403,7 @@
         <v>0</v>
       </c>
       <c r="C71" t="n">
-        <v>28.44</v>
+        <v>24.8</v>
       </c>
       <c r="D71" t="n">
         <v>0</v>
@@ -4415,7 +4415,7 @@
         <v>0</v>
       </c>
       <c r="G71" t="n">
-        <v>23.03100000000001</v>
+        <v>23.597</v>
       </c>
       <c r="H71" t="n">
         <v>49.8</v>
@@ -4424,7 +4424,7 @@
         <v>23.005</v>
       </c>
       <c r="J71" t="n">
-        <v>-630.8267688002983</v>
+        <v>-630.8267688002985</v>
       </c>
       <c r="K71" t="n">
         <v>58.880001</v>
@@ -4459,19 +4459,19 @@
         <v>0</v>
       </c>
       <c r="C72" t="n">
-        <v>28.44</v>
+        <v>24.8</v>
       </c>
       <c r="D72" t="n">
         <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>1.17</v>
+        <v>0.91</v>
       </c>
       <c r="F72" t="n">
         <v>0</v>
       </c>
       <c r="G72" t="n">
-        <v>23.03100000000001</v>
+        <v>23.597</v>
       </c>
       <c r="H72" t="n">
         <v>49.8</v>
@@ -4480,7 +4480,7 @@
         <v>23.005</v>
       </c>
       <c r="J72" t="n">
-        <v>-674.4919814711209</v>
+        <v>-674.1284813656396</v>
       </c>
       <c r="K72" t="n">
         <v>43.529999</v>
@@ -4515,7 +4515,7 @@
         <v>0</v>
       </c>
       <c r="C73" t="n">
-        <v>28.44</v>
+        <v>24.8</v>
       </c>
       <c r="D73" t="n">
         <v>0</v>
@@ -4536,7 +4536,7 @@
         <v>23.99299999999999</v>
       </c>
       <c r="J73" t="n">
-        <v>-691.0555197571022</v>
+        <v>-691.0555197571015</v>
       </c>
       <c r="K73" t="n">
         <v>44.23</v>
@@ -4574,10 +4574,10 @@
         <v>29.35</v>
       </c>
       <c r="D74" t="n">
-        <v>0</v>
+        <v>47.8</v>
       </c>
       <c r="E74" t="n">
-        <v>0.39</v>
+        <v>0.34</v>
       </c>
       <c r="F74" t="n">
         <v>0</v>
@@ -4592,7 +4592,7 @@
         <v>0</v>
       </c>
       <c r="J74" t="n">
-        <v>505.0369305762624</v>
+        <v>3443.424897242241</v>
       </c>
       <c r="K74" t="n">
         <v>41.860001</v>
@@ -4633,7 +4633,7 @@
         <v>47.8</v>
       </c>
       <c r="E75" t="n">
-        <v>0.3399999999996908</v>
+        <v>0.34</v>
       </c>
       <c r="F75" t="n">
         <v>0</v>
@@ -4648,7 +4648,7 @@
         <v>0</v>
       </c>
       <c r="J75" t="n">
-        <v>3263.176524346625</v>
+        <v>3263.176524346627</v>
       </c>
       <c r="K75" t="n">
         <v>41.73</v>
@@ -4689,7 +4689,7 @@
         <v>47.8</v>
       </c>
       <c r="E76" t="n">
-        <v>0.3399999999996908</v>
+        <v>0.34</v>
       </c>
       <c r="F76" t="n">
         <v>0</v>
@@ -4704,7 +4704,7 @@
         <v>0</v>
       </c>
       <c r="J76" t="n">
-        <v>3219.007697603321</v>
+        <v>3219.007697603319</v>
       </c>
       <c r="K76" t="n">
         <v>41.150002</v>
@@ -4760,7 +4760,7 @@
         <v>0</v>
       </c>
       <c r="J77" t="n">
-        <v>3176.668240443797</v>
+        <v>3176.668240443799</v>
       </c>
       <c r="K77" t="n">
         <v>41.52</v>
@@ -4795,13 +4795,13 @@
         <v>0</v>
       </c>
       <c r="C78" t="n">
-        <v>42.44000000000006</v>
+        <v>38</v>
       </c>
       <c r="D78" t="n">
         <v>0</v>
       </c>
       <c r="E78" t="n">
-        <v>0.66</v>
+        <v>0.39</v>
       </c>
       <c r="F78" t="n">
         <v>49.8</v>
@@ -4851,28 +4851,28 @@
         <v>0</v>
       </c>
       <c r="C79" t="n">
-        <v>42.44000000000006</v>
+        <v>38</v>
       </c>
       <c r="D79" t="n">
         <v>0</v>
       </c>
       <c r="E79" t="n">
-        <v>0.66</v>
+        <v>0.39</v>
       </c>
       <c r="F79" t="n">
-        <v>5.4</v>
+        <v>49.8</v>
       </c>
       <c r="G79" t="n">
         <v>22.5929999999999</v>
       </c>
       <c r="H79" t="n">
-        <v>44.40000000000001</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>23.64499999999992</v>
+        <v>23.703</v>
       </c>
       <c r="J79" t="n">
-        <v>-1189.63910016</v>
+        <v>2296.075317778464</v>
       </c>
       <c r="K79" t="n">
         <v>41.619999</v>
@@ -4907,28 +4907,28 @@
         <v>0</v>
       </c>
       <c r="C80" t="n">
-        <v>42.44000000000006</v>
+        <v>38</v>
       </c>
       <c r="D80" t="n">
         <v>0</v>
       </c>
       <c r="E80" t="n">
-        <v>2.54</v>
+        <v>1.21</v>
       </c>
       <c r="F80" t="n">
-        <v>34.5</v>
+        <v>24.4</v>
       </c>
       <c r="G80" t="n">
         <v>21.637</v>
       </c>
       <c r="H80" t="n">
-        <v>15.3</v>
+        <v>25.4</v>
       </c>
       <c r="I80" t="n">
         <v>22.88599999999991</v>
       </c>
       <c r="J80" t="n">
-        <v>-1119.77709624</v>
+        <v>-1131.92865971652</v>
       </c>
       <c r="K80" t="n">
         <v>54.16</v>
@@ -4963,28 +4963,28 @@
         <v>0</v>
       </c>
       <c r="C81" t="n">
-        <v>42.44000000000006</v>
+        <v>38</v>
       </c>
       <c r="D81" t="n">
         <v>0</v>
       </c>
       <c r="E81" t="n">
-        <v>5.31</v>
+        <v>3.16</v>
       </c>
       <c r="F81" t="n">
-        <v>0</v>
+        <v>49.8</v>
       </c>
       <c r="G81" t="n">
-        <v>21.78</v>
+        <v>21.71199999999999</v>
       </c>
       <c r="H81" t="n">
-        <v>49.8</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>22.96099999999996</v>
+        <v>23.089</v>
       </c>
       <c r="J81" t="n">
-        <v>-5937.716304665067</v>
+        <v>-1341.44793747428</v>
       </c>
       <c r="K81" t="n">
         <v>63.310001</v>
@@ -5040,7 +5040,7 @@
         <v>0</v>
       </c>
       <c r="J82" t="n">
-        <v>-4980.90648120288</v>
+        <v>-2441.106030078697</v>
       </c>
       <c r="K82" t="n">
         <v>63.200001</v>
@@ -5081,7 +5081,7 @@
         <v>47.8</v>
       </c>
       <c r="E83" t="n">
-        <v>2.539999999999964</v>
+        <v>2.54</v>
       </c>
       <c r="F83" t="n">
         <v>0</v>
@@ -5096,7 +5096,7 @@
         <v>0</v>
       </c>
       <c r="J83" t="n">
-        <v>-4749.565026966939</v>
+        <v>-4258.463049892756</v>
       </c>
       <c r="K83" t="n">
         <v>50.119999</v>
@@ -5152,7 +5152,7 @@
         <v>0</v>
       </c>
       <c r="J84" t="n">
-        <v>-5518.856277973251</v>
+        <v>-2918.405371924584</v>
       </c>
       <c r="K84" t="n">
         <v>48.119999</v>
@@ -5208,7 +5208,7 @@
         <v>0</v>
       </c>
       <c r="J85" t="n">
-        <v>-5881.9619444586</v>
+        <v>-2001.98071974349</v>
       </c>
       <c r="K85" t="n">
         <v>45.57</v>
@@ -5243,13 +5243,13 @@
         <v>0</v>
       </c>
       <c r="C86" t="n">
-        <v>26.24</v>
+        <v>42</v>
       </c>
       <c r="D86" t="n">
         <v>0</v>
       </c>
       <c r="E86" t="n">
-        <v>1.200000000000729</v>
+        <v>1.050000000000638</v>
       </c>
       <c r="F86" t="n">
         <v>49.8</v>
@@ -5261,10 +5261,10 @@
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>24.571</v>
+        <v>22.717</v>
       </c>
       <c r="J86" t="n">
-        <v>-6427.929948746785</v>
+        <v>-2946.996389737556</v>
       </c>
       <c r="K86" t="n">
         <v>40.259998</v>
@@ -5299,13 +5299,13 @@
         <v>0</v>
       </c>
       <c r="C87" t="n">
-        <v>26.24</v>
+        <v>42</v>
       </c>
       <c r="D87" t="n">
         <v>0</v>
       </c>
       <c r="E87" t="n">
-        <v>1.200000000000729</v>
+        <v>1.050000000000638</v>
       </c>
       <c r="F87" t="n">
         <v>49.8</v>
@@ -5317,10 +5317,10 @@
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>24.571</v>
+        <v>22.769</v>
       </c>
       <c r="J87" t="n">
-        <v>-6438.925028927717</v>
+        <v>-2462.501210676357</v>
       </c>
       <c r="K87" t="n">
         <v>39.9</v>
@@ -5355,13 +5355,13 @@
         <v>0</v>
       </c>
       <c r="C88" t="n">
-        <v>26.24</v>
+        <v>42</v>
       </c>
       <c r="D88" t="n">
         <v>0</v>
       </c>
       <c r="E88" t="n">
-        <v>1.200000000000729</v>
+        <v>1.050000000000638</v>
       </c>
       <c r="F88" t="n">
         <v>49.8</v>
@@ -5373,10 +5373,10 @@
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>24.571</v>
+        <v>22.889</v>
       </c>
       <c r="J88" t="n">
-        <v>-5365.856561621579</v>
+        <v>-1277.627159578047</v>
       </c>
       <c r="K88" t="n">
         <v>38.939999</v>
@@ -5411,13 +5411,13 @@
         <v>0</v>
       </c>
       <c r="C89" t="n">
-        <v>26.24</v>
+        <v>42</v>
       </c>
       <c r="D89" t="n">
         <v>0</v>
       </c>
       <c r="E89" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="F89" t="n">
         <v>49.8</v>
@@ -5429,10 +5429,10 @@
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>24.571</v>
+        <v>22.743</v>
       </c>
       <c r="J89" t="n">
-        <v>-4249.836325554709</v>
+        <v>172.8499734885705</v>
       </c>
       <c r="K89" t="n">
         <v>40.709999</v>
@@ -5467,7 +5467,7 @@
         <v>0</v>
       </c>
       <c r="C90" t="n">
-        <v>42.13</v>
+        <v>36.69</v>
       </c>
       <c r="D90" t="n">
         <v>0</v>
@@ -5476,19 +5476,19 @@
         <v>1.34</v>
       </c>
       <c r="F90" t="n">
-        <v>49.8</v>
+        <v>11.9</v>
       </c>
       <c r="G90" t="n">
         <v>21.1219999999999</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>37.9</v>
       </c>
       <c r="I90" t="n">
-        <v>24.57100000000008</v>
+        <v>22.726</v>
       </c>
       <c r="J90" t="n">
-        <v>-2990.50884288838</v>
+        <v>-1126.152893720889</v>
       </c>
       <c r="K90" t="n">
         <v>44.700001</v>
@@ -5523,28 +5523,28 @@
         <v>0</v>
       </c>
       <c r="C91" t="n">
-        <v>42.13</v>
+        <v>36.69</v>
       </c>
       <c r="D91" t="n">
         <v>0</v>
       </c>
       <c r="E91" t="n">
-        <v>4.63</v>
+        <v>3.33</v>
       </c>
       <c r="F91" t="n">
-        <v>48.8</v>
+        <v>0</v>
       </c>
       <c r="G91" t="n">
-        <v>21.13599999999991</v>
+        <v>21.201</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>49.8</v>
       </c>
       <c r="I91" t="n">
         <v>22.666</v>
       </c>
       <c r="J91" t="n">
-        <v>-1081.28916378938</v>
+        <v>-691.2986587630463</v>
       </c>
       <c r="K91" t="n">
         <v>46.7</v>
@@ -5579,28 +5579,28 @@
         <v>0</v>
       </c>
       <c r="C92" t="n">
-        <v>42.13</v>
+        <v>36.69</v>
       </c>
       <c r="D92" t="n">
         <v>0</v>
       </c>
       <c r="E92" t="n">
-        <v>4.63</v>
+        <v>3.33</v>
       </c>
       <c r="F92" t="n">
-        <v>11.1</v>
+        <v>0</v>
       </c>
       <c r="G92" t="n">
-        <v>21.10899999999998</v>
+        <v>21.208</v>
       </c>
       <c r="H92" t="n">
-        <v>38.7</v>
+        <v>49.8</v>
       </c>
       <c r="I92" t="n">
-        <v>22.27299999999999</v>
+        <v>22.27299999999997</v>
       </c>
       <c r="J92" t="n">
-        <v>-1125.320470513838</v>
+        <v>-594.6268327073784</v>
       </c>
       <c r="K92" t="n">
         <v>50.40001</v>
@@ -5635,7 +5635,7 @@
         <v>0</v>
       </c>
       <c r="C93" t="n">
-        <v>42.13</v>
+        <v>36.69</v>
       </c>
       <c r="D93" t="n">
         <v>0</v>
@@ -5647,7 +5647,7 @@
         <v>0</v>
       </c>
       <c r="G93" t="n">
-        <v>22.804</v>
+        <v>21.169</v>
       </c>
       <c r="H93" t="n">
         <v>49.8</v>
@@ -5656,7 +5656,7 @@
         <v>22.50399999999996</v>
       </c>
       <c r="J93" t="n">
-        <v>-717.9403235231623</v>
+        <v>-606.1255639615612</v>
       </c>
       <c r="K93" t="n">
         <v>46.950001</v>
@@ -5691,13 +5691,13 @@
         <v>0</v>
       </c>
       <c r="C94" t="n">
-        <v>29</v>
+        <v>27.15</v>
       </c>
       <c r="D94" t="n">
         <v>0</v>
       </c>
       <c r="E94" t="n">
-        <v>2.47</v>
+        <v>1.83</v>
       </c>
       <c r="F94" t="n">
         <v>0</v>
@@ -5712,7 +5712,7 @@
         <v>23.005</v>
       </c>
       <c r="J94" t="n">
-        <v>-612.433087079335</v>
+        <v>-612.4330870793347</v>
       </c>
       <c r="K94" t="n">
         <v>55.119999</v>
@@ -5747,28 +5747,28 @@
         <v>0</v>
       </c>
       <c r="C95" t="n">
-        <v>29</v>
+        <v>27.15</v>
       </c>
       <c r="D95" t="n">
         <v>0</v>
       </c>
       <c r="E95" t="n">
-        <v>1.16</v>
+        <v>0.93</v>
       </c>
       <c r="F95" t="n">
-        <v>0</v>
+        <v>49.8</v>
       </c>
       <c r="G95" t="n">
-        <v>22.99000000000009</v>
+        <v>21.601</v>
       </c>
       <c r="H95" t="n">
-        <v>49.8</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>23.005</v>
+        <v>23.056</v>
       </c>
       <c r="J95" t="n">
-        <v>-680.3822515340248</v>
+        <v>2422.798853965093</v>
       </c>
       <c r="K95" t="n">
         <v>39.509998</v>
@@ -5803,13 +5803,13 @@
         <v>0</v>
       </c>
       <c r="C96" t="n">
-        <v>29</v>
+        <v>27.15</v>
       </c>
       <c r="D96" t="n">
         <v>0</v>
       </c>
       <c r="E96" t="n">
-        <v>1.13</v>
+        <v>0.93</v>
       </c>
       <c r="F96" t="n">
         <v>49.8</v>
@@ -5821,10 +5821,10 @@
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>23.05600000000002</v>
+        <v>23.056</v>
       </c>
       <c r="J96" t="n">
-        <v>2260.451606362521</v>
+        <v>2260.451606362522</v>
       </c>
       <c r="K96" t="n">
         <v>37.380001</v>
@@ -5859,7 +5859,7 @@
         <v>0</v>
       </c>
       <c r="C97" t="n">
-        <v>29</v>
+        <v>27.15</v>
       </c>
       <c r="D97" t="n">
         <v>0</v>
@@ -5868,19 +5868,19 @@
         <v>0.93</v>
       </c>
       <c r="F97" t="n">
-        <v>0</v>
+        <v>49.8</v>
       </c>
       <c r="G97" t="n">
-        <v>23.59700000000009</v>
+        <v>22.44</v>
       </c>
       <c r="H97" t="n">
-        <v>49.8</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>24.00599999999991</v>
+        <v>24.082</v>
       </c>
       <c r="J97" t="n">
-        <v>-724.2734182890898</v>
+        <v>2416.644362179168</v>
       </c>
       <c r="K97" t="n">
         <v>41.959999</v>
@@ -5918,10 +5918,10 @@
         <v>33.58</v>
       </c>
       <c r="D98" t="n">
-        <v>0</v>
+        <v>25.5</v>
       </c>
       <c r="E98" t="n">
-        <v>0.39</v>
+        <v>0.38</v>
       </c>
       <c r="F98" t="n">
         <v>0</v>
@@ -5936,7 +5936,7 @@
         <v>0</v>
       </c>
       <c r="J98" t="n">
-        <v>528.2034638095196</v>
+        <v>2542.347936980007</v>
       </c>
       <c r="K98" t="n">
         <v>38.400002</v>
@@ -5977,7 +5977,7 @@
         <v>47.8</v>
       </c>
       <c r="E99" t="n">
-        <v>0.3799999999996543</v>
+        <v>0.38</v>
       </c>
       <c r="F99" t="n">
         <v>0</v>
@@ -5992,7 +5992,7 @@
         <v>0</v>
       </c>
       <c r="J99" t="n">
-        <v>3262.844136025766</v>
+        <v>3262.844136025764</v>
       </c>
       <c r="K99" t="n">
         <v>37.509998</v>
@@ -6104,7 +6104,7 @@
         <v>0</v>
       </c>
       <c r="J101" t="n">
-        <v>3206.711355102088</v>
+        <v>3206.71135510209</v>
       </c>
       <c r="K101" t="n">
         <v>37.99998</v>
@@ -6145,22 +6145,22 @@
         <v>0</v>
       </c>
       <c r="E102" t="n">
-        <v>1.14</v>
+        <v>0.3899999999999997</v>
       </c>
       <c r="F102" t="n">
-        <v>2.5</v>
+        <v>49.8</v>
       </c>
       <c r="G102" t="n">
         <v>22.577</v>
       </c>
       <c r="H102" t="n">
-        <v>47.3</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>23.70299999999992</v>
+        <v>23.746</v>
       </c>
       <c r="J102" t="n">
-        <v>-622.7992604296447</v>
+        <v>2234.479386617355</v>
       </c>
       <c r="K102" t="n">
         <v>37.68</v>
@@ -6204,19 +6204,19 @@
         <v>1.17</v>
       </c>
       <c r="F103" t="n">
-        <v>5.2</v>
+        <v>0</v>
       </c>
       <c r="G103" t="n">
-        <v>22.577</v>
+        <v>22.593</v>
       </c>
       <c r="H103" t="n">
-        <v>44.6</v>
+        <v>49.8</v>
       </c>
       <c r="I103" t="n">
         <v>23.70299999999992</v>
       </c>
       <c r="J103" t="n">
-        <v>-1228.3080813</v>
+        <v>-945.5873243767062</v>
       </c>
       <c r="K103" t="n">
         <v>40.99998</v>
@@ -6257,22 +6257,22 @@
         <v>0</v>
       </c>
       <c r="E104" t="n">
-        <v>5.31</v>
+        <v>2.68</v>
       </c>
       <c r="F104" t="n">
-        <v>44.40000000000001</v>
+        <v>6.5</v>
       </c>
       <c r="G104" t="n">
         <v>21.637</v>
       </c>
       <c r="H104" t="n">
-        <v>5.4</v>
+        <v>43.3</v>
       </c>
       <c r="I104" t="n">
-        <v>22.919</v>
+        <v>22.91899999999993</v>
       </c>
       <c r="J104" t="n">
-        <v>-1123.648244915761</v>
+        <v>-1194.9016737</v>
       </c>
       <c r="K104" t="n">
         <v>41.759998</v>
@@ -6313,22 +6313,22 @@
         <v>0</v>
       </c>
       <c r="E105" t="n">
-        <v>5.31</v>
+        <v>2.69</v>
       </c>
       <c r="F105" t="n">
-        <v>49.8</v>
+        <v>15.8</v>
       </c>
       <c r="G105" t="n">
         <v>21.69299999999993</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="I105" t="n">
-        <v>27.176</v>
+        <v>23</v>
       </c>
       <c r="J105" t="n">
-        <v>-3291.107630608599</v>
+        <v>-1179.931205579999</v>
       </c>
       <c r="K105" t="n">
         <v>45.880001</v>
@@ -6366,7 +6366,7 @@
         <v>44</v>
       </c>
       <c r="D106" t="n">
-        <v>47.8</v>
+        <v>44.40000000000001</v>
       </c>
       <c r="E106" t="n">
         <v>2.68</v>
@@ -6384,7 +6384,7 @@
         <v>0</v>
       </c>
       <c r="J106" t="n">
-        <v>-4180.287842727464</v>
+        <v>-208.4046155999999</v>
       </c>
       <c r="K106" t="n">
         <v>47.139999</v>
@@ -6440,7 +6440,7 @@
         <v>0</v>
       </c>
       <c r="J107" t="n">
-        <v>-5601.978857162938</v>
+        <v>-3488.006954208657</v>
       </c>
       <c r="K107" t="n">
         <v>41.80002</v>
@@ -6496,7 +6496,7 @@
         <v>0</v>
       </c>
       <c r="J108" t="n">
-        <v>-5652.432557956871</v>
+        <v>-4223.528490766155</v>
       </c>
       <c r="K108" t="n">
         <v>37.150002</v>
@@ -6552,7 +6552,7 @@
         <v>0</v>
       </c>
       <c r="J109" t="n">
-        <v>-5251.632913402887</v>
+        <v>-3804.945887556466</v>
       </c>
       <c r="K109" t="n">
         <v>33.889999</v>
@@ -6587,7 +6587,7 @@
         <v>0</v>
       </c>
       <c r="C110" t="n">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="D110" t="n">
         <v>0</v>
@@ -6605,10 +6605,10 @@
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>26.682</v>
+        <v>22.826</v>
       </c>
       <c r="J110" t="n">
-        <v>-6248.466195287881</v>
+        <v>-4216.09855349675</v>
       </c>
       <c r="K110" t="n">
         <v>23.700001</v>
@@ -6643,7 +6643,7 @@
         <v>0</v>
       </c>
       <c r="C111" t="n">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="D111" t="n">
         <v>0</v>
@@ -6661,10 +6661,10 @@
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>26.682</v>
+        <v>22.835</v>
       </c>
       <c r="J111" t="n">
-        <v>-4438.43819494704</v>
+        <v>-2348.985454018224</v>
       </c>
       <c r="K111" t="n">
         <v>16.790001</v>
@@ -6699,7 +6699,7 @@
         <v>0</v>
       </c>
       <c r="C112" t="n">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="D112" t="n">
         <v>0</v>
@@ -6717,10 +6717,10 @@
         <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>26.682</v>
+        <v>22.843</v>
       </c>
       <c r="J112" t="n">
-        <v>-2922.185904655904</v>
+        <v>-2020.90873653323</v>
       </c>
       <c r="K112" t="n">
         <v>9.75</v>
@@ -6755,7 +6755,7 @@
         <v>0</v>
       </c>
       <c r="C113" t="n">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="D113" t="n">
         <v>0</v>
@@ -6773,10 +6773,10 @@
         <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>26.678</v>
+        <v>22.843</v>
       </c>
       <c r="J113" t="n">
-        <v>-2040.366412488658</v>
+        <v>-837.0034611420616</v>
       </c>
       <c r="K113" t="n">
         <v>21.959999</v>
@@ -6811,13 +6811,13 @@
         <v>0</v>
       </c>
       <c r="C114" t="n">
-        <v>34.7</v>
+        <v>46.64</v>
       </c>
       <c r="D114" t="n">
         <v>0</v>
       </c>
       <c r="E114" t="n">
-        <v>2.68</v>
+        <v>2.53</v>
       </c>
       <c r="F114" t="n">
         <v>49.8</v>
@@ -6829,10 +6829,10 @@
         <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>26.678</v>
+        <v>22.835</v>
       </c>
       <c r="J114" t="n">
-        <v>-1165.301969799587</v>
+        <v>1417.646972153957</v>
       </c>
       <c r="K114" t="n">
         <v>39.830002</v>
@@ -6867,28 +6867,28 @@
         <v>0</v>
       </c>
       <c r="C115" t="n">
-        <v>34.7</v>
+        <v>46.64</v>
       </c>
       <c r="D115" t="n">
         <v>0</v>
       </c>
       <c r="E115" t="n">
-        <v>4.03</v>
+        <v>3.19</v>
       </c>
       <c r="F115" t="n">
-        <v>8.200000000000001</v>
+        <v>0</v>
       </c>
       <c r="G115" t="n">
-        <v>21.08799999999991</v>
+        <v>21.136</v>
       </c>
       <c r="H115" t="n">
-        <v>41.6</v>
+        <v>49.8</v>
       </c>
       <c r="I115" t="n">
         <v>22.80899999999991</v>
       </c>
       <c r="J115" t="n">
-        <v>-1176.311725920001</v>
+        <v>-692.1953978498757</v>
       </c>
       <c r="K115" t="n">
         <v>49.900002</v>
@@ -6923,19 +6923,19 @@
         <v>0</v>
       </c>
       <c r="C116" t="n">
-        <v>34.7</v>
+        <v>46.64</v>
       </c>
       <c r="D116" t="n">
         <v>0</v>
       </c>
       <c r="E116" t="n">
-        <v>4.63</v>
+        <v>3.2</v>
       </c>
       <c r="F116" t="n">
         <v>0</v>
       </c>
       <c r="G116" t="n">
-        <v>22.82</v>
+        <v>21.118</v>
       </c>
       <c r="H116" t="n">
         <v>49.8</v>
@@ -6944,7 +6944,7 @@
         <v>22.649</v>
       </c>
       <c r="J116" t="n">
-        <v>-1048.714953844356</v>
+        <v>-667.5483062250476</v>
       </c>
       <c r="K116" t="n">
         <v>55.60001</v>
@@ -6979,19 +6979,19 @@
         <v>0</v>
       </c>
       <c r="C117" t="n">
-        <v>34.7</v>
+        <v>46.64</v>
       </c>
       <c r="D117" t="n">
         <v>0</v>
       </c>
       <c r="E117" t="n">
-        <v>4.63</v>
+        <v>3.36</v>
       </c>
       <c r="F117" t="n">
         <v>0</v>
       </c>
       <c r="G117" t="n">
-        <v>22.82000000000002</v>
+        <v>21.052</v>
       </c>
       <c r="H117" t="n">
         <v>49.8</v>
@@ -7000,7 +7000,7 @@
         <v>22.67500000000001</v>
       </c>
       <c r="J117" t="n">
-        <v>-674.3513003607194</v>
+        <v>-661.0153733753517</v>
       </c>
       <c r="K117" t="n">
         <v>57.529999</v>
@@ -7035,19 +7035,19 @@
         <v>0</v>
       </c>
       <c r="C118" t="n">
-        <v>32.88</v>
+        <v>29</v>
       </c>
       <c r="D118" t="n">
         <v>0</v>
       </c>
       <c r="E118" t="n">
-        <v>4.03</v>
+        <v>2.02</v>
       </c>
       <c r="F118" t="n">
         <v>0</v>
       </c>
       <c r="G118" t="n">
-        <v>23.005</v>
+        <v>21.601</v>
       </c>
       <c r="H118" t="n">
         <v>49.8</v>
@@ -7056,7 +7056,7 @@
         <v>23.05599999999998</v>
       </c>
       <c r="J118" t="n">
-        <v>-691.3225669820692</v>
+        <v>-690.9553880839193</v>
       </c>
       <c r="K118" t="n">
         <v>53.200001</v>
@@ -7091,7 +7091,7 @@
         <v>0</v>
       </c>
       <c r="C119" t="n">
-        <v>32.88</v>
+        <v>29</v>
       </c>
       <c r="D119" t="n">
         <v>0</v>
@@ -7103,7 +7103,7 @@
         <v>0</v>
       </c>
       <c r="G119" t="n">
-        <v>23.005</v>
+        <v>21.601</v>
       </c>
       <c r="H119" t="n">
         <v>49.8</v>
@@ -7147,28 +7147,28 @@
         <v>0</v>
       </c>
       <c r="C120" t="n">
-        <v>32.88</v>
+        <v>29</v>
       </c>
       <c r="D120" t="n">
         <v>0</v>
       </c>
       <c r="E120" t="n">
-        <v>1.2</v>
+        <v>0.9500000000000001</v>
       </c>
       <c r="F120" t="n">
-        <v>0</v>
+        <v>49.8</v>
       </c>
       <c r="G120" t="n">
-        <v>21.601</v>
+        <v>21.589</v>
       </c>
       <c r="H120" t="n">
-        <v>49.8</v>
+        <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>23.05599999999998</v>
+        <v>23.094</v>
       </c>
       <c r="J120" t="n">
-        <v>-721.8633536944129</v>
+        <v>2452.540672230747</v>
       </c>
       <c r="K120" t="n">
         <v>48.439999</v>
@@ -7203,28 +7203,28 @@
         <v>0</v>
       </c>
       <c r="C121" t="n">
-        <v>32.88</v>
+        <v>29</v>
       </c>
       <c r="D121" t="n">
         <v>0</v>
       </c>
       <c r="E121" t="n">
-        <v>1.1</v>
+        <v>0.87</v>
       </c>
       <c r="F121" t="n">
-        <v>0</v>
+        <v>49.8</v>
       </c>
       <c r="G121" t="n">
-        <v>22.752</v>
+        <v>22.64799999999997</v>
       </c>
       <c r="H121" t="n">
-        <v>49.8</v>
+        <v>0</v>
       </c>
       <c r="I121" t="n">
-        <v>24.00599999999991</v>
+        <v>24.016</v>
       </c>
       <c r="J121" t="n">
-        <v>-756.5944884101244</v>
+        <v>2388.055462037129</v>
       </c>
       <c r="K121" t="n">
         <v>47.459999</v>
@@ -7265,7 +7265,7 @@
         <v>47.8</v>
       </c>
       <c r="E122" t="n">
-        <v>0.3799999999996544</v>
+        <v>0.38</v>
       </c>
       <c r="F122" t="n">
         <v>0</v>
@@ -7280,7 +7280,7 @@
         <v>0</v>
       </c>
       <c r="J122" t="n">
-        <v>3347.907157704039</v>
+        <v>3347.907157704044</v>
       </c>
       <c r="K122" t="n">
         <v>40.459999</v>
@@ -7480,19 +7480,19 @@
         <v>44310.16666666666</v>
       </c>
       <c r="B126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C126" t="n">
-        <v>42.39999999999964</v>
+        <v>50.55</v>
       </c>
       <c r="D126" t="n">
         <v>0</v>
       </c>
       <c r="E126" t="n">
-        <v>0.74</v>
+        <v>0.66</v>
       </c>
       <c r="F126" t="n">
-        <v>47.8</v>
+        <v>49.8</v>
       </c>
       <c r="G126" t="n">
         <v>0</v>
@@ -7504,7 +7504,7 @@
         <v>23.665</v>
       </c>
       <c r="J126" t="n">
-        <v>2075.647988896117</v>
+        <v>2152.626440303161</v>
       </c>
       <c r="K126" t="n">
         <v>30.49999</v>
@@ -7536,10 +7536,10 @@
         <v>44310.20833333334</v>
       </c>
       <c r="B127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C127" t="n">
-        <v>42.39999999999964</v>
+        <v>50.55</v>
       </c>
       <c r="D127" t="n">
         <v>0</v>
@@ -7548,19 +7548,19 @@
         <v>0.79</v>
       </c>
       <c r="F127" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G127" t="n">
-        <v>0</v>
+        <v>22.57700000000001</v>
       </c>
       <c r="H127" t="n">
-        <v>43.8</v>
+        <v>49.8</v>
       </c>
       <c r="I127" t="n">
         <v>23.64499999999992</v>
       </c>
       <c r="J127" t="n">
-        <v>-1158.344155254263</v>
+        <v>-859.3005751966227</v>
       </c>
       <c r="K127" t="n">
         <v>51.77</v>
@@ -7592,31 +7592,31 @@
         <v>44310.25</v>
       </c>
       <c r="B128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C128" t="n">
-        <v>42.39999999999964</v>
+        <v>50.55</v>
       </c>
       <c r="D128" t="n">
         <v>0</v>
       </c>
       <c r="E128" t="n">
-        <v>3.16</v>
+        <v>2.54</v>
       </c>
       <c r="F128" t="n">
-        <v>44</v>
+        <v>8.6</v>
       </c>
       <c r="G128" t="n">
         <v>21.637</v>
       </c>
       <c r="H128" t="n">
-        <v>3.8</v>
+        <v>41.2</v>
       </c>
       <c r="I128" t="n">
         <v>22.81299999999999</v>
       </c>
       <c r="J128" t="n">
-        <v>-1118.247674539999</v>
+        <v>-1134.13992328</v>
       </c>
       <c r="K128" t="n">
         <v>42.580002</v>
@@ -7648,10 +7648,10 @@
         <v>44310.29166666666</v>
       </c>
       <c r="B129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C129" t="n">
-        <v>42.39999999999964</v>
+        <v>50.55</v>
       </c>
       <c r="D129" t="n">
         <v>0</v>
@@ -7660,19 +7660,19 @@
         <v>3.16</v>
       </c>
       <c r="F129" t="n">
-        <v>47.8</v>
+        <v>31.5</v>
       </c>
       <c r="G129" t="n">
-        <v>21.69300000000001</v>
+        <v>21.69299999999993</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>18.3</v>
       </c>
       <c r="I129" t="n">
-        <v>22.988</v>
+        <v>22.96099999999996</v>
       </c>
       <c r="J129" t="n">
-        <v>-3573.968985596462</v>
+        <v>-1125.881861460002</v>
       </c>
       <c r="K129" t="n">
         <v>43.580002</v>
@@ -7713,13 +7713,13 @@
         <v>0</v>
       </c>
       <c r="E130" t="n">
-        <v>3.36</v>
+        <v>2.68</v>
       </c>
       <c r="F130" t="n">
         <v>47.8</v>
       </c>
       <c r="G130" t="n">
-        <v>0</v>
+        <v>21.871</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -7728,7 +7728,7 @@
         <v>0</v>
       </c>
       <c r="J130" t="n">
-        <v>-4638.228995433256</v>
+        <v>-49.70561139321989</v>
       </c>
       <c r="K130" t="n">
         <v>43.939999</v>
@@ -7769,7 +7769,7 @@
         <v>47.8</v>
       </c>
       <c r="E131" t="n">
-        <v>1.339999999999691</v>
+        <v>1.34</v>
       </c>
       <c r="F131" t="n">
         <v>0</v>
@@ -7784,7 +7784,7 @@
         <v>0</v>
       </c>
       <c r="J131" t="n">
-        <v>-5653.775636778583</v>
+        <v>932.4960014551226</v>
       </c>
       <c r="K131" t="n">
         <v>43.700001</v>
@@ -7840,7 +7840,7 @@
         <v>0</v>
       </c>
       <c r="J132" t="n">
-        <v>-6553.507944183518</v>
+        <v>674.8393412376653</v>
       </c>
       <c r="K132" t="n">
         <v>42.669998</v>
@@ -7878,10 +7878,10 @@
         <v>25</v>
       </c>
       <c r="D133" t="n">
-        <v>47.80000000000527</v>
+        <v>47.8</v>
       </c>
       <c r="E133" t="n">
-        <v>1.049999999999986</v>
+        <v>1.05</v>
       </c>
       <c r="F133" t="n">
         <v>0</v>
@@ -7896,7 +7896,7 @@
         <v>0</v>
       </c>
       <c r="J133" t="n">
-        <v>-6876.009400811356</v>
+        <v>776.4555470372103</v>
       </c>
       <c r="K133" t="n">
         <v>41.7</v>
@@ -7928,10 +7928,10 @@
         <v>44310.5</v>
       </c>
       <c r="B134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C134" t="n">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="D134" t="n">
         <v>0</v>
@@ -7940,19 +7940,19 @@
         <v>1.1</v>
       </c>
       <c r="F134" t="n">
-        <v>49.8</v>
+        <v>18.3</v>
       </c>
       <c r="G134" t="n">
         <v>0</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>29.5</v>
       </c>
       <c r="I134" t="n">
-        <v>22.717</v>
+        <v>22.69200000000001</v>
       </c>
       <c r="J134" t="n">
-        <v>-7410.271886195094</v>
+        <v>-1029.475572785497</v>
       </c>
       <c r="K134" t="n">
         <v>38.2</v>
@@ -7984,10 +7984,10 @@
         <v>44310.54166666666</v>
       </c>
       <c r="B135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C135" t="n">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="D135" t="n">
         <v>0</v>
@@ -7996,19 +7996,19 @@
         <v>1.1</v>
       </c>
       <c r="F135" t="n">
-        <v>49.8</v>
+        <v>16.3</v>
       </c>
       <c r="G135" t="n">
         <v>0</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>31.5</v>
       </c>
       <c r="I135" t="n">
-        <v>22.726</v>
+        <v>22.72499999999999</v>
       </c>
       <c r="J135" t="n">
-        <v>-6728.00815911888</v>
+        <v>-1043.091585285238</v>
       </c>
       <c r="K135" t="n">
         <v>35.389999</v>
@@ -8040,10 +8040,10 @@
         <v>44310.58333333334</v>
       </c>
       <c r="B136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C136" t="n">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="D136" t="n">
         <v>0</v>
@@ -8052,19 +8052,19 @@
         <v>1.1</v>
       </c>
       <c r="F136" t="n">
-        <v>49.8</v>
+        <v>15.6</v>
       </c>
       <c r="G136" t="n">
         <v>0</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>32.2</v>
       </c>
       <c r="I136" t="n">
-        <v>22.769</v>
+        <v>22.75099999999992</v>
       </c>
       <c r="J136" t="n">
-        <v>-5820.217812859386</v>
+        <v>-1044.721020569904</v>
       </c>
       <c r="K136" t="n">
         <v>38.5</v>
@@ -8096,10 +8096,10 @@
         <v>44310.625</v>
       </c>
       <c r="B137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C137" t="n">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="D137" t="n">
         <v>0</v>
@@ -8108,7 +8108,7 @@
         <v>1.1</v>
       </c>
       <c r="F137" t="n">
-        <v>49.8</v>
+        <v>47.8</v>
       </c>
       <c r="G137" t="n">
         <v>21.10599999999999</v>
@@ -8117,10 +8117,10 @@
         <v>0</v>
       </c>
       <c r="I137" t="n">
-        <v>22.769</v>
+        <v>22.743</v>
       </c>
       <c r="J137" t="n">
-        <v>-4843.982221164893</v>
+        <v>1730.369723858833</v>
       </c>
       <c r="K137" t="n">
         <v>42.9998</v>
@@ -8155,28 +8155,28 @@
         <v>0</v>
       </c>
       <c r="C138" t="n">
-        <v>42.12999999999997</v>
+        <v>42.13</v>
       </c>
       <c r="D138" t="n">
         <v>0</v>
       </c>
       <c r="E138" t="n">
-        <v>2.68</v>
+        <v>1.34</v>
       </c>
       <c r="F138" t="n">
+        <v>0</v>
+      </c>
+      <c r="G138" t="n">
+        <v>21.871</v>
+      </c>
+      <c r="H138" t="n">
         <v>49.8</v>
       </c>
-      <c r="G138" t="n">
-        <v>21.12199999999999</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
-        <v>22.768</v>
+        <v>22.726</v>
       </c>
       <c r="J138" t="n">
-        <v>-2114.185322886342</v>
+        <v>-939.9917502772375</v>
       </c>
       <c r="K138" t="n">
         <v>49.349998</v>
@@ -8211,28 +8211,28 @@
         <v>0</v>
       </c>
       <c r="C139" t="n">
-        <v>42.12999999999997</v>
+        <v>42.13</v>
       </c>
       <c r="D139" t="n">
         <v>0</v>
       </c>
       <c r="E139" t="n">
-        <v>3.33</v>
+        <v>3.21</v>
       </c>
       <c r="F139" t="n">
-        <v>28.5</v>
+        <v>0</v>
       </c>
       <c r="G139" t="n">
-        <v>21.08799999999991</v>
+        <v>21.871</v>
       </c>
       <c r="H139" t="n">
-        <v>21.3</v>
+        <v>49.8</v>
       </c>
       <c r="I139" t="n">
         <v>22.68199999999996</v>
       </c>
       <c r="J139" t="n">
-        <v>-1108.668437879999</v>
+        <v>-558.3374815614019</v>
       </c>
       <c r="K139" t="n">
         <v>57.189999</v>
@@ -8267,7 +8267,7 @@
         <v>0</v>
       </c>
       <c r="C140" t="n">
-        <v>42.12999999999997</v>
+        <v>42.13</v>
       </c>
       <c r="D140" t="n">
         <v>0</v>
@@ -8279,7 +8279,7 @@
         <v>0</v>
       </c>
       <c r="G140" t="n">
-        <v>22.804</v>
+        <v>21.871</v>
       </c>
       <c r="H140" t="n">
         <v>49.8</v>
@@ -8288,7 +8288,7 @@
         <v>22.649</v>
       </c>
       <c r="J140" t="n">
-        <v>-1406.010227466139</v>
+        <v>-496.6130219571749</v>
       </c>
       <c r="K140" t="n">
         <v>63.580002</v>
@@ -8323,7 +8323,7 @@
         <v>0</v>
       </c>
       <c r="C141" t="n">
-        <v>42.12999999999997</v>
+        <v>42.13</v>
       </c>
       <c r="D141" t="n">
         <v>0</v>
@@ -8335,7 +8335,7 @@
         <v>0</v>
       </c>
       <c r="G141" t="n">
-        <v>22.804</v>
+        <v>21.052</v>
       </c>
       <c r="H141" t="n">
         <v>49.8</v>
@@ -8344,7 +8344,7 @@
         <v>22.50399999999996</v>
       </c>
       <c r="J141" t="n">
-        <v>-576.6336538016396</v>
+        <v>-427.8856382254766</v>
       </c>
       <c r="K141" t="n">
         <v>66.410004</v>
@@ -8385,13 +8385,13 @@
         <v>0</v>
       </c>
       <c r="E142" t="n">
-        <v>2.47</v>
+        <v>1.83</v>
       </c>
       <c r="F142" t="n">
         <v>0</v>
       </c>
       <c r="G142" t="n">
-        <v>22.99</v>
+        <v>21.871</v>
       </c>
       <c r="H142" t="n">
         <v>49.8</v>
@@ -8400,7 +8400,7 @@
         <v>23.005</v>
       </c>
       <c r="J142" t="n">
-        <v>-486.983335796534</v>
+        <v>-486.9833357965291</v>
       </c>
       <c r="K142" t="n">
         <v>61.279999</v>
@@ -8441,13 +8441,13 @@
         <v>0</v>
       </c>
       <c r="E143" t="n">
-        <v>1.18</v>
+        <v>1.16</v>
       </c>
       <c r="F143" t="n">
         <v>0</v>
       </c>
       <c r="G143" t="n">
-        <v>21.601</v>
+        <v>21.871</v>
       </c>
       <c r="H143" t="n">
         <v>49.8</v>
@@ -8456,7 +8456,7 @@
         <v>23.005</v>
       </c>
       <c r="J143" t="n">
-        <v>-527.7093425319053</v>
+        <v>-527.709342531905</v>
       </c>
       <c r="K143" t="n">
         <v>58.830002</v>
@@ -8497,13 +8497,13 @@
         <v>0</v>
       </c>
       <c r="E144" t="n">
-        <v>1.18</v>
+        <v>1.13</v>
       </c>
       <c r="F144" t="n">
         <v>0</v>
       </c>
       <c r="G144" t="n">
-        <v>21.601</v>
+        <v>21.871</v>
       </c>
       <c r="H144" t="n">
         <v>49.8</v>
@@ -8556,19 +8556,19 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="F145" t="n">
-        <v>0</v>
+        <v>49.8</v>
       </c>
       <c r="G145" t="n">
-        <v>23.61199999999999</v>
+        <v>22.64799999999997</v>
       </c>
       <c r="H145" t="n">
-        <v>49.8</v>
+        <v>0</v>
       </c>
       <c r="I145" t="n">
-        <v>23.988</v>
+        <v>24.006</v>
       </c>
       <c r="J145" t="n">
-        <v>-707.1272702669223</v>
+        <v>2453.850018211422</v>
       </c>
       <c r="K145" t="n">
         <v>54.240002</v>
@@ -8603,13 +8603,13 @@
         <v>1</v>
       </c>
       <c r="C146" t="n">
-        <v>29.44000000000005</v>
+        <v>29.44</v>
       </c>
       <c r="D146" t="n">
-        <v>0</v>
+        <v>47.8</v>
       </c>
       <c r="E146" t="n">
-        <v>0.39</v>
+        <v>0.3799999999996544</v>
       </c>
       <c r="F146" t="n">
         <v>0</v>
@@ -8624,7 +8624,7 @@
         <v>0</v>
       </c>
       <c r="J146" t="n">
-        <v>504.3465640914925</v>
+        <v>3439.268789257195</v>
       </c>
       <c r="K146" t="n">
         <v>38.959999</v>
@@ -8659,7 +8659,7 @@
         <v>1</v>
       </c>
       <c r="C147" t="n">
-        <v>29.44000000000005</v>
+        <v>29.44</v>
       </c>
       <c r="D147" t="n">
         <v>47.8</v>
@@ -8680,7 +8680,7 @@
         <v>0</v>
       </c>
       <c r="J147" t="n">
-        <v>3275.202604425943</v>
+        <v>3275.202604425942</v>
       </c>
       <c r="K147" t="n">
         <v>39.43</v>
@@ -8715,7 +8715,7 @@
         <v>1</v>
       </c>
       <c r="C148" t="n">
-        <v>29.44000000000005</v>
+        <v>29.44</v>
       </c>
       <c r="D148" t="n">
         <v>47.8</v>
@@ -8736,7 +8736,7 @@
         <v>0</v>
       </c>
       <c r="J148" t="n">
-        <v>3281.591605939603</v>
+        <v>3281.591605939604</v>
       </c>
       <c r="K148" t="n">
         <v>40.99998</v>
@@ -8771,13 +8771,13 @@
         <v>1</v>
       </c>
       <c r="C149" t="n">
-        <v>29.44000000000005</v>
+        <v>29.44</v>
       </c>
       <c r="D149" t="n">
-        <v>47.8000000000264</v>
+        <v>47.8</v>
       </c>
       <c r="E149" t="n">
-        <v>0.379999999999809</v>
+        <v>0.3799999999996544</v>
       </c>
       <c r="F149" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="J149" t="n">
-        <v>3236.056542752205</v>
+        <v>3236.056542752207</v>
       </c>
       <c r="K149" t="n">
         <v>39.52</v>
@@ -8827,13 +8827,13 @@
         <v>0</v>
       </c>
       <c r="C150" t="n">
-        <v>40.24</v>
+        <v>36.43</v>
       </c>
       <c r="D150" t="n">
         <v>0</v>
       </c>
       <c r="E150" t="n">
-        <v>0.3899999999999544</v>
+        <v>0.3899999999999998</v>
       </c>
       <c r="F150" t="n">
         <v>49.8</v>
@@ -8883,28 +8883,28 @@
         <v>0</v>
       </c>
       <c r="C151" t="n">
-        <v>40.24</v>
+        <v>36.43</v>
       </c>
       <c r="D151" t="n">
         <v>0</v>
       </c>
       <c r="E151" t="n">
-        <v>0.3999999999999453</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="F151" t="n">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="G151" t="n">
-        <v>22.577</v>
+        <v>23.98400000000001</v>
       </c>
       <c r="H151" t="n">
-        <v>42.40000000000001</v>
+        <v>49.8</v>
       </c>
       <c r="I151" t="n">
         <v>23.64499999999992</v>
       </c>
       <c r="J151" t="n">
-        <v>-1234.743460779998</v>
+        <v>-1000.739350211993</v>
       </c>
       <c r="K151" t="n">
         <v>57.34</v>
@@ -8939,7 +8939,7 @@
         <v>0</v>
       </c>
       <c r="C152" t="n">
-        <v>40.24</v>
+        <v>36.43</v>
       </c>
       <c r="D152" t="n">
         <v>0</v>
@@ -8948,19 +8948,19 @@
         <v>2.54</v>
       </c>
       <c r="F152" t="n">
-        <v>0</v>
+        <v>29.8</v>
       </c>
       <c r="G152" t="n">
-        <v>23.499</v>
+        <v>21.66199999999998</v>
       </c>
       <c r="H152" t="n">
-        <v>49.8</v>
+        <v>20</v>
       </c>
       <c r="I152" t="n">
         <v>22.88599999999991</v>
       </c>
       <c r="J152" t="n">
-        <v>-4086.830202311435</v>
+        <v>-1180.575548194743</v>
       </c>
       <c r="K152" t="n">
         <v>77.879997</v>
@@ -8995,7 +8995,7 @@
         <v>0</v>
       </c>
       <c r="C153" t="n">
-        <v>40.24</v>
+        <v>36.43</v>
       </c>
       <c r="D153" t="n">
         <v>0</v>
@@ -9007,7 +9007,7 @@
         <v>0</v>
       </c>
       <c r="G153" t="n">
-        <v>21.69299999999993</v>
+        <v>23.499</v>
       </c>
       <c r="H153" t="n">
         <v>49.8</v>
@@ -9016,7 +9016,7 @@
         <v>22.96099999999996</v>
       </c>
       <c r="J153" t="n">
-        <v>-7372.158565375992</v>
+        <v>-6271.321082173238</v>
       </c>
       <c r="K153" t="n">
         <v>82.470001</v>
@@ -9072,7 +9072,7 @@
         <v>0</v>
       </c>
       <c r="J154" t="n">
-        <v>-4895.605662184367</v>
+        <v>-3855.471037665635</v>
       </c>
       <c r="K154" t="n">
         <v>65.120003</v>
@@ -9113,7 +9113,7 @@
         <v>47.8</v>
       </c>
       <c r="E155" t="n">
-        <v>1.339999999999691</v>
+        <v>1.34</v>
       </c>
       <c r="F155" t="n">
         <v>0</v>
@@ -9128,7 +9128,7 @@
         <v>0</v>
       </c>
       <c r="J155" t="n">
-        <v>-6296.902427540314</v>
+        <v>-4776.165023464733</v>
       </c>
       <c r="K155" t="n">
         <v>54.599998</v>
@@ -9184,7 +9184,7 @@
         <v>0</v>
       </c>
       <c r="J156" t="n">
-        <v>-6571.200055983912</v>
+        <v>-4745.089838143086</v>
       </c>
       <c r="K156" t="n">
         <v>46.360001</v>
@@ -9240,7 +9240,7 @@
         <v>0</v>
       </c>
       <c r="J157" t="n">
-        <v>-5583.379963284989</v>
+        <v>-3944.735393255674</v>
       </c>
       <c r="K157" t="n">
         <v>40.259998</v>
@@ -9293,10 +9293,10 @@
         <v>0</v>
       </c>
       <c r="I158" t="n">
-        <v>24.571</v>
+        <v>22.717</v>
       </c>
       <c r="J158" t="n">
-        <v>-6756.132370130523</v>
+        <v>-4772.01611048974</v>
       </c>
       <c r="K158" t="n">
         <v>38.700001</v>
@@ -9349,10 +9349,10 @@
         <v>0</v>
       </c>
       <c r="I159" t="n">
-        <v>24.571</v>
+        <v>22.726</v>
       </c>
       <c r="J159" t="n">
-        <v>-5479.337673679165</v>
+        <v>-2888.90041652438</v>
       </c>
       <c r="K159" t="n">
         <v>38.419998</v>
@@ -9405,10 +9405,10 @@
         <v>0</v>
       </c>
       <c r="I160" t="n">
-        <v>22.88900000000001</v>
+        <v>22.889</v>
       </c>
       <c r="J160" t="n">
-        <v>-3866.765652037009</v>
+        <v>-1607.953108497969</v>
       </c>
       <c r="K160" t="n">
         <v>38</v>
@@ -9464,7 +9464,7 @@
         <v>22.743</v>
       </c>
       <c r="J161" t="n">
-        <v>-4778.115417513236</v>
+        <v>-124.5679587797958</v>
       </c>
       <c r="K161" t="n">
         <v>39.29999</v>
@@ -9499,7 +9499,7 @@
         <v>0</v>
       </c>
       <c r="C162" t="n">
-        <v>55</v>
+        <v>42.4</v>
       </c>
       <c r="D162" t="n">
         <v>0</v>
@@ -9520,7 +9520,7 @@
         <v>22.768</v>
       </c>
       <c r="J162" t="n">
-        <v>-3188.446376636036</v>
+        <v>1664.920379094773</v>
       </c>
       <c r="K162" t="n">
         <v>40.25</v>
@@ -9555,7 +9555,7 @@
         <v>0</v>
       </c>
       <c r="C163" t="n">
-        <v>55</v>
+        <v>42.4</v>
       </c>
       <c r="D163" t="n">
         <v>0</v>
@@ -9564,19 +9564,19 @@
         <v>3.21</v>
       </c>
       <c r="F163" t="n">
+        <v>0</v>
+      </c>
+      <c r="G163" t="n">
+        <v>22.804</v>
+      </c>
+      <c r="H163" t="n">
         <v>49.8</v>
       </c>
-      <c r="G163" t="n">
-        <v>21.08799999999991</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
       <c r="I163" t="n">
-        <v>24.571</v>
+        <v>22.666</v>
       </c>
       <c r="J163" t="n">
-        <v>-1418.863258702749</v>
+        <v>-746.5781529254963</v>
       </c>
       <c r="K163" t="n">
         <v>46.400002</v>
@@ -9611,7 +9611,7 @@
         <v>0</v>
       </c>
       <c r="C164" t="n">
-        <v>55</v>
+        <v>42.4</v>
       </c>
       <c r="D164" t="n">
         <v>0</v>
@@ -9620,19 +9620,19 @@
         <v>3.21</v>
       </c>
       <c r="F164" t="n">
-        <v>14.4</v>
+        <v>0</v>
       </c>
       <c r="G164" t="n">
-        <v>21.11600000000002</v>
+        <v>22.804</v>
       </c>
       <c r="H164" t="n">
-        <v>35.4</v>
+        <v>49.8</v>
       </c>
       <c r="I164" t="n">
         <v>22.27299999999997</v>
       </c>
       <c r="J164" t="n">
-        <v>-1162.5520158</v>
+        <v>-622.7167744851315</v>
       </c>
       <c r="K164" t="n">
         <v>55.5</v>
@@ -9667,7 +9667,7 @@
         <v>0</v>
       </c>
       <c r="C165" t="n">
-        <v>55</v>
+        <v>42.4</v>
       </c>
       <c r="D165" t="n">
         <v>0</v>
@@ -9679,7 +9679,7 @@
         <v>0</v>
       </c>
       <c r="G165" t="n">
-        <v>21.01499999999993</v>
+        <v>22.804</v>
       </c>
       <c r="H165" t="n">
         <v>49.8</v>
@@ -9688,7 +9688,7 @@
         <v>22.50399999999996</v>
       </c>
       <c r="J165" t="n">
-        <v>-782.181034059725</v>
+        <v>-642.2937780913586</v>
       </c>
       <c r="K165" t="n">
         <v>48.110001</v>
@@ -9735,7 +9735,7 @@
         <v>0</v>
       </c>
       <c r="G166" t="n">
-        <v>22.99000000000002</v>
+        <v>22.99</v>
       </c>
       <c r="H166" t="n">
         <v>49.8</v>
@@ -9744,7 +9744,7 @@
         <v>23.005</v>
       </c>
       <c r="J166" t="n">
-        <v>-701.768733756516</v>
+        <v>-700.0747247756617</v>
       </c>
       <c r="K166" t="n">
         <v>42.139999</v>
@@ -9791,7 +9791,7 @@
         <v>0</v>
       </c>
       <c r="G167" t="n">
-        <v>23.031</v>
+        <v>22.99</v>
       </c>
       <c r="H167" t="n">
         <v>49.8</v>
@@ -9800,7 +9800,7 @@
         <v>23.005</v>
       </c>
       <c r="J167" t="n">
-        <v>-704.8917800428184</v>
+        <v>-703.2082534734946</v>
       </c>
       <c r="K167" t="n">
         <v>40.93</v>
@@ -9841,22 +9841,22 @@
         <v>0</v>
       </c>
       <c r="E168" t="n">
-        <v>1.18</v>
+        <v>0.87</v>
       </c>
       <c r="F168" t="n">
-        <v>0</v>
+        <v>49.8</v>
       </c>
       <c r="G168" t="n">
-        <v>22.99000000000002</v>
+        <v>21.589</v>
       </c>
       <c r="H168" t="n">
-        <v>49.8</v>
+        <v>0</v>
       </c>
       <c r="I168" t="n">
-        <v>23.005</v>
+        <v>23.056</v>
       </c>
       <c r="J168" t="n">
-        <v>-731.0231169709147</v>
+        <v>2340.185321533328</v>
       </c>
       <c r="K168" t="n">
         <v>37.82</v>
@@ -9900,19 +9900,19 @@
         <v>1.14</v>
       </c>
       <c r="F169" t="n">
-        <v>0</v>
+        <v>49.8</v>
       </c>
       <c r="G169" t="n">
-        <v>22.752</v>
+        <v>22.31999999999999</v>
       </c>
       <c r="H169" t="n">
-        <v>49.8</v>
+        <v>0</v>
       </c>
       <c r="I169" t="n">
-        <v>23.99299999999999</v>
+        <v>24.082</v>
       </c>
       <c r="J169" t="n">
-        <v>-731.8682481588861</v>
+        <v>2344.14101418831</v>
       </c>
       <c r="K169" t="n">
         <v>38.599998</v>
